--- a/1.3/ADMIN TESTCASES(done).xlsx
+++ b/1.3/ADMIN TESTCASES(done).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -491,6 +491,63 @@
       </rPr>
       <t>.  As an admin,</t>
     </r>
+  </si>
+  <si>
+    <t>Test Document</t>
+  </si>
+  <si>
+    <t>Case Study Name:</t>
+  </si>
+  <si>
+    <t>Online Shopping Mall</t>
+  </si>
+  <si>
+    <t>Case Study Description:</t>
+  </si>
+  <si>
+    <t>SoftCart.com</t>
+  </si>
+  <si>
+    <t>Pre-requisite for Test Execution:</t>
+  </si>
+  <si>
+    <t>Weblogic Server,odbc_14_g.jar</t>
+  </si>
+  <si>
+    <t>Prepared By:</t>
+  </si>
+  <si>
+    <t>Pratik Sawant &amp; Prashant Dwivedi</t>
+  </si>
+  <si>
+    <t>Reviwed By:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AD ID</t>
+  </si>
+  <si>
+    <t>AD 1001</t>
+  </si>
+  <si>
+    <t>AD 2001</t>
+  </si>
+  <si>
+    <t>AD 3001</t>
+  </si>
+  <si>
+    <t>AD 4001</t>
+  </si>
+  <si>
+    <t>AD 5001</t>
+  </si>
+  <si>
+    <t>AD 6001</t>
+  </si>
+  <si>
+    <t>AD 7001</t>
   </si>
 </sst>
 </file>
@@ -548,7 +605,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,8 +618,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -570,11 +639,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -587,6 +717,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,524 +1069,616 @@
     <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="13" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+    <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" t="s">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" t="s">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C35" t="s">
         <v>56</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" t="s">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" t="s">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C37" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="F39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C40" t="s">
         <v>65</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="41" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C41" t="s">
         <v>66</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C42" t="s">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C43" t="s">
         <v>55</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" t="s">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C44" t="s">
         <v>56</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" t="s">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" t="s">
         <v>22</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C45" t="s">
         <v>57</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="C40" t="s">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="C46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" t="s">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
         <v>24</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C47" t="s">
         <v>67</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="48" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B50" t="s">
         <v>5</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C50" t="s">
         <v>69</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="51" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C51" t="s">
         <v>70</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D51" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B54" t="s">
         <v>5</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
         <v>74</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="55" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C55" t="s">
         <v>76</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="F57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C58" t="s">
         <v>74</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="59" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C59" t="s">
         <v>79</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+    <row r="60" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
